--- a/biology/Neurosciences/Ronald_Cicurel/Ronald_Cicurel.xlsx
+++ b/biology/Neurosciences/Ronald_Cicurel/Ronald_Cicurel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ronald Cicurel, né le 3 juin 1945 au Caire est un mathématicien et philosophe, connu pour avoir été l'un des initiateurs de Blue Brain project avant de s'en distancier.
 </t>
@@ -511,9 +523,11 @@
           <t>Aperçu biographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est le fils de Salvatore Cicurel et de sa deuxième épouse, Huguette Zaki Roffe. Il est ainsi un cousin germain de Lili Cicurel, l'une des filles de Solomon Cicurel (1881-1927) et épouse de Pierre Mendès France (1907-1982) et de son frère Raymond Cicurel (1920-2008)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est le fils de Salvatore Cicurel et de sa deuxième épouse, Huguette Zaki Roffe. Il est ainsi un cousin germain de Lili Cicurel, l'une des filles de Solomon Cicurel (1881-1927) et épouse de Pierre Mendès France (1907-1982) et de son frère Raymond Cicurel (1920-2008).
 En 1957, ses parents, expulsés d'Égypte par le régime de Nasser, s'établissent en Suisse. Il effectue ses études à l'université de Lausanne où il obtient, en 1972, un doctorat en mathématiques.
 Il participe au lancement du Blue Brain project de 2005 à 2010, avec les professeurs Henry Markram et Georges Abou-Jaoudé. Il est chargé de cours au laboratoire d'informatique et de visualisation de l'EPFL depuis 2006 et fellow de l'institut international de neurosciences de Natal au Brésil depuis 2010. 
 </t>
@@ -544,7 +558,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La Quête de Spyridon, Editions Sarina, 2002, ISBN 9-781-482-672992
 L'Ordinateur ne digèrera pas le cerveau. Science et cerveaux artificiels, essai sur la nature du réél, Editions Sarina, 2013. ISBN 9-781-482-605457
